--- a/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT02016222</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Tear Analysis in the Diagnosis of Primary Progressive Forms of Multiple Sclerosis</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>LARMES</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT02276924</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Diagnostic Relevance of Laser Confocal Microscopy During Reno-ureteroscopy in the Context of the Screening and Follow-up of Upper Urinary Tract Tumors</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>UROVISIO</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02765529</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Research of Biomarkers of Air Pollutants Exposure</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>AEROTOX-2</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02005679</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Transposition of the Mini-Mental State in Sign Language</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>MMS-LS</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -700,36 +725,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT02043964</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tear Analysis by Isoelectric Focusing in Clinically Isolated Syndrome as Multiple Sclerosis Criterion Among Patients With or Without Lesions at the Magnetic Resonance Imaging (Oligoclonal Profile of Tears)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>POLAR</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -748,36 +778,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02297165</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Efficacy Study of an Olfactory Stimulation Program in Relaxing Environment for the Recuperation of Autobiographical Memories in Anorexic Patients</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>OLFANOR</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -796,36 +831,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02669160</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tolerance of a Motorized Orthosis Reproducing Walking Movement Versus Conventional Passive Standing-up Devices in Children With Cerebral Palsy : A Non-inferiority, Randomised, Multicenter, Controlled Trial</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>EOMEC/CP</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -844,36 +884,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT03393299</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Impact of the Systematic Use of the Criteria STOPP/START in Short Stay Geriatric: Study of Superiority, Randomized, Controlled, Prospective, Single Blind</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>REVOR</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -892,36 +937,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT03666793</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Comprehensive Management of Drug Prescriptions Throughout the Elderly Person's Hospital Care, From Hospital to Home: Impact on Readmission at 30 Days After Delivery</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>OPTISORT</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -940,36 +990,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT02733900</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Study of Modifications of the Composition and Structure in the Aseptic Osteonecrosis of the Femoral Head and Etiopathogenic MRI Correlations</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>ONTF</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -988,36 +1043,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT03727217</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Performance of Ultrasound in the Early Diagnosis of Vocal Cords Paralysis After Thyroidectomy or Parathyroidectomy (PECV)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>PECV</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1036,36 +1096,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT04224077</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Optimisation of Diffusion Tensor Sequences (DTI) for Study of Lumbar Roots by Magnetic Resonance Imaging (MRI) : a Feasibility Study</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>OPTI-DTI</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1084,36 +1149,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT03976674</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Evaluation of a Preoperative Cognitive Behavioural Therapy (CBT) Program Based on Self-determination Theory for Bariatric Surgery Candidates : an Open-label Controlled, Randomized, Superiority Study</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ACRoBAT</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1132,36 +1202,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT02862379</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Evaluation of a Personalized Rehabilitation Program for Elderly Patients That Fall : Impact on the Fear of Falling</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>CHUTE</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1180,36 +1255,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT03162341</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Study of the Correlation Between UltraSonography and Dual-Energy Computed Tomography Assessment of Urate Deposit in Urate Lowering Therapy Initiators</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>GOUT</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1228,36 +1308,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT04699136</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Use and Validation of the 6-minute Stepper Test in in Patients With Cardiac Pathologies Needing Rehabilitation and Reeducation (CVRR)</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>STEPPER</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1276,36 +1361,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT04169477</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Superiority, Prospective, Multicentric, Randomized, Single-blind, Cross-over Study Comparing 2 Modes of Transcutaneous Electrical Nerve Stimulation (TENS) in Chronic Neuropathic Radiculalgia</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>CROSS-TENS</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1324,36 +1414,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT03128905</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Colchicine or Prednisone for the Treatment of Acute Calcium Pyrophosphate Deposition (CPPD) Arthritis: Open-label, Randomized, Multicenter, Equivalence Trial of Efficacy and Safety</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>COLCHICORT</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1372,36 +1467,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT02819037</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Modification of Digestive Flora After Gastric Bypass : Pilot Study on Microbial Overgrowth Using Gas Chromatography</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>SIBOB</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>

--- a/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -55,10 +55,10 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>pas de résultat ni de publication</t>

--- a/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -55,7 +55,7 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
+    <t>⚠️</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -58,10 +58,10 @@
     <t>⚠️</t>
   </si>
   <si>
-    <t>bleu</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
   </si>
   <si>
     <t>NCT02016222</t>

--- a/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,25 +40,13 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT02016222</t>
@@ -629,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,682 +648,442 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="F5" t="s">
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H13" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>49</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H14" t="s">
         <v>68</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H15" t="s">
         <v>69</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H16" t="s">
         <v>70</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
       </c>
       <c r="I16" t="s">
         <v>75</v>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -49,30 +49,30 @@
     <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
+    <t>NCT02276924</t>
+  </si>
+  <si>
     <t>NCT02016222</t>
   </si>
   <si>
-    <t>NCT02276924</t>
-  </si>
-  <si>
     <t>NCT02765529</t>
   </si>
   <si>
     <t>NCT02005679</t>
   </si>
   <si>
+    <t>NCT02669160</t>
+  </si>
+  <si>
+    <t>NCT03393299</t>
+  </si>
+  <si>
+    <t>NCT02297165</t>
+  </si>
+  <si>
     <t>NCT02043964</t>
   </si>
   <si>
-    <t>NCT02297165</t>
-  </si>
-  <si>
-    <t>NCT02669160</t>
-  </si>
-  <si>
-    <t>NCT03393299</t>
-  </si>
-  <si>
     <t>NCT03666793</t>
   </si>
   <si>
@@ -94,18 +94,18 @@
     <t>NCT03162341</t>
   </si>
   <si>
+    <t>NCT04169477</t>
+  </si>
+  <si>
     <t>NCT04699136</t>
   </si>
   <si>
-    <t>NCT04169477</t>
+    <t>NCT02819037</t>
   </si>
   <si>
     <t>NCT03128905</t>
   </si>
   <si>
-    <t>NCT02819037</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
@@ -127,30 +127,30 @@
     <t>2022</t>
   </si>
   <si>
+    <t>Diagnostic Relevance of Laser Confocal Microscopy During Reno-ureteroscopy in the Context of the Screening and Follow-up of Upper Urinary Tract Tumors</t>
+  </si>
+  <si>
     <t>Tear Analysis in the Diagnosis of Primary Progressive Forms of Multiple Sclerosis</t>
   </si>
   <si>
-    <t>Diagnostic Relevance of Laser Confocal Microscopy During Reno-ureteroscopy in the Context of the Screening and Follow-up of Upper Urinary Tract Tumors</t>
-  </si>
-  <si>
     <t>Research of Biomarkers of Air Pollutants Exposure</t>
   </si>
   <si>
     <t>Transposition of the Mini-Mental State in Sign Language</t>
   </si>
   <si>
+    <t>Tolerance of a Motorized Orthosis Reproducing Walking Movement Versus Conventional Passive Standing-up Devices in Children With Cerebral Palsy : A Non-inferiority, Randomised, Multicenter, Controlled Trial</t>
+  </si>
+  <si>
+    <t>Impact of the Systematic Use of the Criteria STOPP/START in Short Stay Geriatric: Study of Superiority, Randomized, Controlled, Prospective, Single Blind</t>
+  </si>
+  <si>
+    <t>Efficacy Study of an Olfactory Stimulation Program in Relaxing Environment for the Recuperation of Autobiographical Memories in Anorexic Patients</t>
+  </si>
+  <si>
     <t>Tear Analysis by Isoelectric Focusing in Clinically Isolated Syndrome as Multiple Sclerosis Criterion Among Patients With or Without Lesions at the Magnetic Resonance Imaging (Oligoclonal Profile of Tears)</t>
   </si>
   <si>
-    <t>Efficacy Study of an Olfactory Stimulation Program in Relaxing Environment for the Recuperation of Autobiographical Memories in Anorexic Patients</t>
-  </si>
-  <si>
-    <t>Tolerance of a Motorized Orthosis Reproducing Walking Movement Versus Conventional Passive Standing-up Devices in Children With Cerebral Palsy : A Non-inferiority, Randomised, Multicenter, Controlled Trial</t>
-  </si>
-  <si>
-    <t>Impact of the Systematic Use of the Criteria STOPP/START in Short Stay Geriatric: Study of Superiority, Randomized, Controlled, Prospective, Single Blind</t>
-  </si>
-  <si>
     <t>Comprehensive Management of Drug Prescriptions Throughout the Elderly Person's Hospital Care, From Hospital to Home: Impact on Readmission at 30 Days After Delivery</t>
   </si>
   <si>
@@ -172,42 +172,42 @@
     <t>Study of the Correlation Between UltraSonography and Dual-Energy Computed Tomography Assessment of Urate Deposit in Urate Lowering Therapy Initiators</t>
   </si>
   <si>
+    <t>Superiority, Prospective, Multicentric, Randomized, Single-blind, Cross-over Study Comparing 2 Modes of Transcutaneous Electrical Nerve Stimulation (TENS) in Chronic Neuropathic Radiculalgia</t>
+  </si>
+  <si>
     <t>Use and Validation of the 6-minute Stepper Test in in Patients With Cardiac Pathologies Needing Rehabilitation and Reeducation (CVRR)</t>
   </si>
   <si>
-    <t>Superiority, Prospective, Multicentric, Randomized, Single-blind, Cross-over Study Comparing 2 Modes of Transcutaneous Electrical Nerve Stimulation (TENS) in Chronic Neuropathic Radiculalgia</t>
+    <t>Modification of Digestive Flora After Gastric Bypass : Pilot Study on Microbial Overgrowth Using Gas Chromatography</t>
   </si>
   <si>
     <t>Colchicine or Prednisone for the Treatment of Acute Calcium Pyrophosphate Deposition (CPPD) Arthritis: Open-label, Randomized, Multicenter, Equivalence Trial of Efficacy and Safety</t>
   </si>
   <si>
-    <t>Modification of Digestive Flora After Gastric Bypass : Pilot Study on Microbial Overgrowth Using Gas Chromatography</t>
+    <t>UROVISIO</t>
   </si>
   <si>
     <t>LARMES</t>
   </si>
   <si>
-    <t>UROVISIO</t>
-  </si>
-  <si>
     <t>AEROTOX-2</t>
   </si>
   <si>
     <t>MMS-LS</t>
   </si>
   <si>
+    <t>EOMEC/CP</t>
+  </si>
+  <si>
+    <t>REVOR</t>
+  </si>
+  <si>
+    <t>OLFANOR</t>
+  </si>
+  <si>
     <t>POLAR</t>
   </si>
   <si>
-    <t>OLFANOR</t>
-  </si>
-  <si>
-    <t>EOMEC/CP</t>
-  </si>
-  <si>
-    <t>REVOR</t>
-  </si>
-  <si>
     <t>OPTISORT</t>
   </si>
   <si>
@@ -229,22 +229,22 @@
     <t>GOUT</t>
   </si>
   <si>
+    <t>CROSS-TENS</t>
+  </si>
+  <si>
     <t>STEPPER</t>
   </si>
   <si>
-    <t>CROSS-TENS</t>
+    <t>SIBOB</t>
   </si>
   <si>
     <t>COLCHICORT</t>
   </si>
   <si>
-    <t>SIBOB</t>
+    <t>DEVICE</t>
   </si>
   <si>
     <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -715,7 +715,7 @@
         <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -784,7 +784,7 @@
         <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -807,7 +807,7 @@
         <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -830,7 +830,7 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -991,7 +991,7 @@
         <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1014,7 +1014,7 @@
         <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1037,7 +1037,7 @@
         <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1060,7 +1060,7 @@
         <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1083,7 +1083,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage2/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -46,66 +46,66 @@
     <t>4</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>NCT02016222</t>
+  </si>
+  <si>
+    <t>NCT02765529</t>
   </si>
   <si>
     <t>NCT02276924</t>
   </si>
   <si>
-    <t>NCT02016222</t>
-  </si>
-  <si>
-    <t>NCT02765529</t>
-  </si>
-  <si>
     <t>NCT02005679</t>
   </si>
   <si>
     <t>NCT02669160</t>
   </si>
   <si>
+    <t>NCT02297165</t>
+  </si>
+  <si>
     <t>NCT03393299</t>
   </si>
   <si>
-    <t>NCT02297165</t>
-  </si>
-  <si>
     <t>NCT02043964</t>
   </si>
   <si>
     <t>NCT03666793</t>
   </si>
   <si>
+    <t>NCT03727217</t>
+  </si>
+  <si>
+    <t>NCT03976674</t>
+  </si>
+  <si>
+    <t>NCT04224077</t>
+  </si>
+  <si>
     <t>NCT02733900</t>
   </si>
   <si>
-    <t>NCT03727217</t>
-  </si>
-  <si>
-    <t>NCT04224077</t>
-  </si>
-  <si>
-    <t>NCT03976674</t>
+    <t>NCT03162341</t>
   </si>
   <si>
     <t>NCT02862379</t>
   </si>
   <si>
-    <t>NCT03162341</t>
+    <t>NCT02819037</t>
+  </si>
+  <si>
+    <t>NCT04699136</t>
+  </si>
+  <si>
+    <t>NCT03128905</t>
   </si>
   <si>
     <t>NCT04169477</t>
   </si>
   <si>
-    <t>NCT04699136</t>
-  </si>
-  <si>
-    <t>NCT02819037</t>
-  </si>
-  <si>
-    <t>NCT03128905</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
@@ -127,124 +127,124 @@
     <t>2022</t>
   </si>
   <si>
+    <t>Tear Analysis in the Diagnosis of Primary Progressive Forms of Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Research of Biomarkers of Air Pollutants Exposure</t>
+  </si>
+  <si>
     <t>Diagnostic Relevance of Laser Confocal Microscopy During Reno-ureteroscopy in the Context of the Screening and Follow-up of Upper Urinary Tract Tumors</t>
   </si>
   <si>
-    <t>Tear Analysis in the Diagnosis of Primary Progressive Forms of Multiple Sclerosis</t>
-  </si>
-  <si>
-    <t>Research of Biomarkers of Air Pollutants Exposure</t>
-  </si>
-  <si>
     <t>Transposition of the Mini-Mental State in Sign Language</t>
   </si>
   <si>
     <t>Tolerance of a Motorized Orthosis Reproducing Walking Movement Versus Conventional Passive Standing-up Devices in Children With Cerebral Palsy : A Non-inferiority, Randomised, Multicenter, Controlled Trial</t>
   </si>
   <si>
+    <t>Efficacy Study of an Olfactory Stimulation Program in Relaxing Environment for the Recuperation of Autobiographical Memories in Anorexic Patients</t>
+  </si>
+  <si>
     <t>Impact of the Systematic Use of the Criteria STOPP/START in Short Stay Geriatric: Study of Superiority, Randomized, Controlled, Prospective, Single Blind</t>
   </si>
   <si>
-    <t>Efficacy Study of an Olfactory Stimulation Program in Relaxing Environment for the Recuperation of Autobiographical Memories in Anorexic Patients</t>
-  </si>
-  <si>
     <t>Tear Analysis by Isoelectric Focusing in Clinically Isolated Syndrome as Multiple Sclerosis Criterion Among Patients With or Without Lesions at the Magnetic Resonance Imaging (Oligoclonal Profile of Tears)</t>
   </si>
   <si>
     <t>Comprehensive Management of Drug Prescriptions Throughout the Elderly Person's Hospital Care, From Hospital to Home: Impact on Readmission at 30 Days After Delivery</t>
   </si>
   <si>
+    <t>Performance of Ultrasound in the Early Diagnosis of Vocal Cords Paralysis After Thyroidectomy or Parathyroidectomy (PECV)</t>
+  </si>
+  <si>
+    <t>Evaluation of a Preoperative Cognitive Behavioural Therapy (CBT) Program Based on Self-determination Theory for Bariatric Surgery Candidates : an Open-label Controlled, Randomized, Superiority Study</t>
+  </si>
+  <si>
+    <t>Optimisation of Diffusion Tensor Sequences (DTI) for Study of Lumbar Roots by Magnetic Resonance Imaging (MRI) : a Feasibility Study</t>
+  </si>
+  <si>
     <t>Study of Modifications of the Composition and Structure in the Aseptic Osteonecrosis of the Femoral Head and Etiopathogenic MRI Correlations</t>
   </si>
   <si>
-    <t>Performance of Ultrasound in the Early Diagnosis of Vocal Cords Paralysis After Thyroidectomy or Parathyroidectomy (PECV)</t>
-  </si>
-  <si>
-    <t>Optimisation of Diffusion Tensor Sequences (DTI) for Study of Lumbar Roots by Magnetic Resonance Imaging (MRI) : a Feasibility Study</t>
-  </si>
-  <si>
-    <t>Evaluation of a Preoperative Cognitive Behavioural Therapy (CBT) Program Based on Self-determination Theory for Bariatric Surgery Candidates : an Open-label Controlled, Randomized, Superiority Study</t>
+    <t>Study of the Correlation Between UltraSonography and Dual-Energy Computed Tomography Assessment of Urate Deposit in Urate Lowering Therapy Initiators</t>
   </si>
   <si>
     <t>Evaluation of a Personalized Rehabilitation Program for Elderly Patients That Fall : Impact on the Fear of Falling</t>
   </si>
   <si>
-    <t>Study of the Correlation Between UltraSonography and Dual-Energy Computed Tomography Assessment of Urate Deposit in Urate Lowering Therapy Initiators</t>
+    <t>Modification of Digestive Flora After Gastric Bypass : Pilot Study on Microbial Overgrowth Using Gas Chromatography</t>
+  </si>
+  <si>
+    <t>Use and Validation of the 6-minute Stepper Test in in Patients With Cardiac Pathologies Needing Rehabilitation and Reeducation (CVRR)</t>
+  </si>
+  <si>
+    <t>Colchicine or Prednisone for the Treatment of Acute Calcium Pyrophosphate Deposition (CPPD) Arthritis: Open-label, Randomized, Multicenter, Equivalence Trial of Efficacy and Safety</t>
   </si>
   <si>
     <t>Superiority, Prospective, Multicentric, Randomized, Single-blind, Cross-over Study Comparing 2 Modes of Transcutaneous Electrical Nerve Stimulation (TENS) in Chronic Neuropathic Radiculalgia</t>
   </si>
   <si>
-    <t>Use and Validation of the 6-minute Stepper Test in in Patients With Cardiac Pathologies Needing Rehabilitation and Reeducation (CVRR)</t>
-  </si>
-  <si>
-    <t>Modification of Digestive Flora After Gastric Bypass : Pilot Study on Microbial Overgrowth Using Gas Chromatography</t>
-  </si>
-  <si>
-    <t>Colchicine or Prednisone for the Treatment of Acute Calcium Pyrophosphate Deposition (CPPD) Arthritis: Open-label, Randomized, Multicenter, Equivalence Trial of Efficacy and Safety</t>
+    <t>LARMES</t>
+  </si>
+  <si>
+    <t>AEROTOX-2</t>
   </si>
   <si>
     <t>UROVISIO</t>
   </si>
   <si>
-    <t>LARMES</t>
-  </si>
-  <si>
-    <t>AEROTOX-2</t>
-  </si>
-  <si>
     <t>MMS-LS</t>
   </si>
   <si>
     <t>EOMEC/CP</t>
   </si>
   <si>
+    <t>OLFANOR</t>
+  </si>
+  <si>
     <t>REVOR</t>
   </si>
   <si>
-    <t>OLFANOR</t>
-  </si>
-  <si>
     <t>POLAR</t>
   </si>
   <si>
     <t>OPTISORT</t>
   </si>
   <si>
+    <t>PECV</t>
+  </si>
+  <si>
+    <t>ACRoBAT</t>
+  </si>
+  <si>
+    <t>OPTI-DTI</t>
+  </si>
+  <si>
     <t>ONTF</t>
   </si>
   <si>
-    <t>PECV</t>
-  </si>
-  <si>
-    <t>OPTI-DTI</t>
-  </si>
-  <si>
-    <t>ACRoBAT</t>
+    <t>GOUT</t>
   </si>
   <si>
     <t>CHUTE</t>
   </si>
   <si>
-    <t>GOUT</t>
+    <t>SIBOB</t>
+  </si>
+  <si>
+    <t>STEPPER</t>
+  </si>
+  <si>
+    <t>COLCHICORT</t>
   </si>
   <si>
     <t>CROSS-TENS</t>
   </si>
   <si>
-    <t>STEPPER</t>
-  </si>
-  <si>
-    <t>SIBOB</t>
-  </si>
-  <si>
-    <t>COLCHICORT</t>
+    <t>PROCEDURE</t>
   </si>
   <si>
     <t>DEVICE</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -692,7 +692,7 @@
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -761,7 +761,7 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -784,7 +784,7 @@
         <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -807,7 +807,7 @@
         <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -830,7 +830,7 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -899,7 +899,7 @@
         <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -945,7 +945,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -968,7 +968,7 @@
         <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -991,7 +991,7 @@
         <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1060,7 +1060,7 @@
         <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1083,7 +1083,7 @@
         <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
